--- a/medicine/Mort/Cimetière_Assistens/Cimetière_Assistens.xlsx
+++ b/medicine/Mort/Cimetière_Assistens/Cimetière_Assistens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Assistens</t>
+          <t>Cimetière_Assistens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Assistens (danois : Assistens Kirkegård) est situé dans un large parc du quartier Nørrebro de Copenhague, au Danemark.  Établi en 1760[1], c'est un des plus grands cimetières de la capitale avec le cimetière Vestre. Parfois surnommé « Cimetière de Nørrebro », c'est un lieu commun de promenade des résidents du quartier, de parcours touristique entre les tombes des personnages célèbres enterrés, ou de pique-nique et de bain de soleil. Un marché aux puces est organisé le long de ses murs, chaque samedi de mai à octobre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Assistens (danois : Assistens Kirkegård) est situé dans un large parc du quartier Nørrebro de Copenhague, au Danemark.  Établi en 1760, c'est un des plus grands cimetières de la capitale avec le cimetière Vestre. Parfois surnommé « Cimetière de Nørrebro », c'est un lieu commun de promenade des résidents du quartier, de parcours touristique entre les tombes des personnages célèbres enterrés, ou de pique-nique et de bain de soleil. Un marché aux puces est organisé le long de ses murs, chaque samedi de mai à octobre.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Assistens</t>
+          <t>Cimetière_Assistens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nikolaj Abraham Abildgaard (1743-1809), peintre
 Hans Christian Andersen (1805-1875), écrivain
@@ -526,7 +540,7 @@
 Henry Heerup (1907-1993), peintre, sculpteur
 Søren Kierkegaard (1813-1855), philosophe
 Christen Købke (1819-1848), peintre
-Knud Erik Larsen (1865-1922), peintre[2]
+Knud Erik Larsen (1865-1922), peintre
 Lauritz Melchior (1890-1973), chanteur d'opéra
 Poul Martin Møller (1794-1838), philosophe
 Martin Andersen Nexø (1869-1954), écrivain
@@ -541,7 +555,7 @@
 Ben Webster (1909-1973), musicien de jazz américain
 Johannes Wiedewelt (1731-1802), sculpteur
 Peter Atke Castberg (1779-1823), fondateur d'école danois pour les sourds
-Marie Zinck (1789-1823), actrice et chanteuse d'opéra[3]</t>
+Marie Zinck (1789-1823), actrice et chanteuse d'opéra</t>
         </is>
       </c>
     </row>
